--- a/biology/Zoologie/Ballerus_ballerus/Ballerus_ballerus.xlsx
+++ b/biology/Zoologie/Ballerus_ballerus/Ballerus_ballerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ballerus ballerus, la brème bleue, est une espèce de poissons de la famille des Cyprinidae qui se nourrit principalement de zooplancton. En Suède, il se rencontre dans les lacs de Vänern, Hjälmaren, Mälaren (ainsi que ses affluents) et dans le Helgeån. La brème bleue peut mesurer jusqu'à 45 centimètres et peser 0,8 kg.
 </t>
